--- a/DATA/collate_cultivar_data_30_percent/data/smoothed_cumul_gdd_vs_season_day.xlsx
+++ b/DATA/collate_cultivar_data_30_percent/data/smoothed_cumul_gdd_vs_season_day.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C668"/>
+  <dimension ref="A1:C664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5603,7 +5603,7 @@
         <v>236</v>
       </c>
       <c r="C474">
-        <v>1238.3287388</v>
+        <v>1238.3287387</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5614,7 +5614,7 @@
         <v>236</v>
       </c>
       <c r="C475">
-        <v>1238.3287388</v>
+        <v>1238.3287387</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5625,7 +5625,7 @@
         <v>237</v>
       </c>
       <c r="C476">
-        <v>1247.7850513</v>
+        <v>1247.7850512</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>237</v>
       </c>
       <c r="C477">
-        <v>1247.7850513</v>
+        <v>1247.7850512</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5647,7 +5647,7 @@
         <v>238</v>
       </c>
       <c r="C478">
-        <v>1257.0781465</v>
+        <v>1257.0781463</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5658,7 +5658,7 @@
         <v>238</v>
       </c>
       <c r="C479">
-        <v>1257.0781465</v>
+        <v>1257.0781463</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5669,7 +5669,7 @@
         <v>239</v>
       </c>
       <c r="C480">
-        <v>1266.2100486</v>
+        <v>1266.2100482</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5680,7 +5680,7 @@
         <v>239</v>
       </c>
       <c r="C481">
-        <v>1266.2100486</v>
+        <v>1266.2100482</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5691,7 +5691,7 @@
         <v>240</v>
       </c>
       <c r="C482">
-        <v>1275.1842629</v>
+        <v>1275.1842622</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5702,7 +5702,7 @@
         <v>240</v>
       </c>
       <c r="C483">
-        <v>1275.1842629</v>
+        <v>1275.1842622</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5713,7 +5713,7 @@
         <v>241</v>
       </c>
       <c r="C484">
-        <v>1284.0055897</v>
+        <v>1284.0055885</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5724,7 +5724,7 @@
         <v>241</v>
       </c>
       <c r="C485">
-        <v>1284.0055897</v>
+        <v>1284.0055885</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5735,7 +5735,7 @@
         <v>242</v>
       </c>
       <c r="C486">
-        <v>1292.6799128</v>
+        <v>1292.6799108</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>242</v>
       </c>
       <c r="C487">
-        <v>1292.6799128</v>
+        <v>1292.6799108</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5757,7 +5757,7 @@
         <v>243</v>
       </c>
       <c r="C488">
-        <v>1301.213975</v>
+        <v>1301.2139715</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5768,7 +5768,7 @@
         <v>243</v>
       </c>
       <c r="C489">
-        <v>1301.213975</v>
+        <v>1301.2139715</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5779,7 +5779,7 @@
         <v>244</v>
       </c>
       <c r="C490">
-        <v>1309.6151456</v>
+        <v>1309.6151396</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5790,7 +5790,7 @@
         <v>244</v>
       </c>
       <c r="C491">
-        <v>1309.6151456</v>
+        <v>1309.6151396</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5801,7 +5801,7 @@
         <v>245</v>
       </c>
       <c r="C492">
-        <v>1317.8911919</v>
+        <v>1317.891182</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5812,7 +5812,7 @@
         <v>245</v>
       </c>
       <c r="C493">
-        <v>1317.8911919</v>
+        <v>1317.891182</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5823,7 +5823,7 @@
         <v>246</v>
       </c>
       <c r="C494">
-        <v>1326.050059</v>
+        <v>1326.0500426</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5834,7 +5834,7 @@
         <v>246</v>
       </c>
       <c r="C495">
-        <v>1326.050059</v>
+        <v>1326.0500426</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5845,7 +5845,7 @@
         <v>247</v>
       </c>
       <c r="C496">
-        <v>1334.0996654</v>
+        <v>1334.0996383</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5856,7 +5856,7 @@
         <v>247</v>
       </c>
       <c r="C497">
-        <v>1334.0996654</v>
+        <v>1334.0996383</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5867,7 +5867,7 @@
         <v>248</v>
       </c>
       <c r="C498">
-        <v>1342.047718</v>
+        <v>1342.0476741</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5878,7 +5878,7 @@
         <v>248</v>
       </c>
       <c r="C499">
-        <v>1342.047718</v>
+        <v>1342.0476741</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5889,7 +5889,7 @@
         <v>249</v>
       </c>
       <c r="C500">
-        <v>1349.9015517</v>
+        <v>1349.9014811</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5900,7 +5900,7 @@
         <v>249</v>
       </c>
       <c r="C501">
-        <v>1349.9015517</v>
+        <v>1349.9014811</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5911,7 +5911,7 @@
         <v>250</v>
       </c>
       <c r="C502">
-        <v>1357.667993</v>
+        <v>1357.6678806</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5922,7 +5922,7 @@
         <v>250</v>
       </c>
       <c r="C503">
-        <v>1357.667993</v>
+        <v>1357.6678806</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5933,7 +5933,7 @@
         <v>251</v>
       </c>
       <c r="C504">
-        <v>1365.3532509</v>
+        <v>1365.3530739</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5944,7 +5944,7 @@
         <v>251</v>
       </c>
       <c r="C505">
-        <v>1365.3532509</v>
+        <v>1365.3530739</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5955,7 +5955,7 @@
         <v>252</v>
       </c>
       <c r="C506">
-        <v>1372.9628339</v>
+        <v>1372.9625582</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5966,7 +5966,7 @@
         <v>252</v>
       </c>
       <c r="C507">
-        <v>1372.9628339</v>
+        <v>1372.9625582</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5977,7 +5977,7 @@
         <v>253</v>
       </c>
       <c r="C508">
-        <v>1380.5014937</v>
+        <v>1380.5010686</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5988,7 +5988,7 @@
         <v>253</v>
       </c>
       <c r="C509">
-        <v>1380.5014937</v>
+        <v>1380.5010686</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5999,7 +5999,7 @@
         <v>254</v>
       </c>
       <c r="C510">
-        <v>1387.973193</v>
+        <v>1387.9725444</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6010,7 +6010,7 @@
         <v>254</v>
       </c>
       <c r="C511">
-        <v>1387.973193</v>
+        <v>1387.9725444</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6021,7 +6021,7 @@
         <v>255</v>
       </c>
       <c r="C512">
-        <v>1395.3810979</v>
+        <v>1395.3801191</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6032,7 +6032,7 @@
         <v>255</v>
       </c>
       <c r="C513">
-        <v>1395.3810979</v>
+        <v>1395.3801191</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6043,7 +6043,7 @@
         <v>256</v>
       </c>
       <c r="C514">
-        <v>1402.7275923</v>
+        <v>1402.7261308</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6054,7 +6054,7 @@
         <v>256</v>
       </c>
       <c r="C515">
-        <v>1402.7275923</v>
+        <v>1402.7261308</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>257</v>
       </c>
       <c r="C516">
-        <v>1410.0143121</v>
+        <v>1410.0121532</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6076,7 +6076,7 @@
         <v>257</v>
       </c>
       <c r="C517">
-        <v>1410.0143121</v>
+        <v>1410.0121532</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6087,7 +6087,7 @@
         <v>258</v>
       </c>
       <c r="C518">
-        <v>1417.242197</v>
+        <v>1417.2390424</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6098,7 +6098,7 @@
         <v>258</v>
       </c>
       <c r="C519">
-        <v>1417.242197</v>
+        <v>1417.2390424</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6109,7 +6109,7 @@
         <v>259</v>
       </c>
       <c r="C520">
-        <v>1424.4115583</v>
+        <v>1424.4069987</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6120,7 +6120,7 @@
         <v>259</v>
       </c>
       <c r="C521">
-        <v>1424.4115583</v>
+        <v>1424.4069987</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6131,7 +6131,7 @@
         <v>260</v>
       </c>
       <c r="C522">
-        <v>1431.5221571</v>
+        <v>1431.5156388</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6142,7 +6142,7 @@
         <v>260</v>
       </c>
       <c r="C523">
-        <v>1431.5221571</v>
+        <v>1431.5156388</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6153,7 +6153,7 @@
         <v>261</v>
       </c>
       <c r="C524">
-        <v>1438.5732913</v>
+        <v>1438.5640748</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6164,7 +6164,7 @@
         <v>261</v>
       </c>
       <c r="C525">
-        <v>1438.5732913</v>
+        <v>1438.5640748</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>262</v>
       </c>
       <c r="C526">
-        <v>1445.5638852</v>
+        <v>1445.5509976</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6186,7 +6186,7 @@
         <v>262</v>
       </c>
       <c r="C527">
-        <v>1445.5638852</v>
+        <v>1445.5509976</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6197,7 +6197,7 @@
         <v>263</v>
       </c>
       <c r="C528">
-        <v>1452.4925791</v>
+        <v>1452.4747585</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6208,7 +6208,7 @@
         <v>263</v>
       </c>
       <c r="C529">
-        <v>1452.4925791</v>
+        <v>1452.4747585</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6219,7 +6219,7 @@
         <v>264</v>
       </c>
       <c r="C530">
-        <v>1459.3578122</v>
+        <v>1459.3334461</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6230,7 +6230,7 @@
         <v>264</v>
       </c>
       <c r="C531">
-        <v>1459.3578122</v>
+        <v>1459.3334461</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6241,7 +6241,7 @@
         <v>265</v>
       </c>
       <c r="C532">
-        <v>1466.157895</v>
+        <v>1466.1249553</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6252,7 +6252,7 @@
         <v>265</v>
       </c>
       <c r="C533">
-        <v>1466.157895</v>
+        <v>1466.1249553</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6263,7 +6263,7 @@
         <v>266</v>
       </c>
       <c r="C534">
-        <v>1472.8910677</v>
+        <v>1472.8470439</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6274,7 +6274,7 @@
         <v>266</v>
       </c>
       <c r="C535">
-        <v>1472.8910677</v>
+        <v>1472.8470439</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6285,7 +6285,7 @@
         <v>267</v>
       </c>
       <c r="C536">
-        <v>1479.5555395</v>
+        <v>1479.4973773</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6296,7 +6296,7 @@
         <v>267</v>
       </c>
       <c r="C537">
-        <v>1479.5555395</v>
+        <v>1479.4973773</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6307,7 +6307,7 @@
         <v>268</v>
       </c>
       <c r="C538">
-        <v>1486.1495093</v>
+        <v>1486.0735591</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6318,7 +6318,7 @@
         <v>268</v>
       </c>
       <c r="C539">
-        <v>1486.1495093</v>
+        <v>1486.0735591</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6329,7 +6329,7 @@
         <v>269</v>
       </c>
       <c r="C540">
-        <v>1492.6711657</v>
+        <v>1492.5731499</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6340,7 +6340,7 @@
         <v>269</v>
       </c>
       <c r="C541">
-        <v>1492.6711657</v>
+        <v>1492.5731499</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6351,7 +6351,7 @@
         <v>270</v>
       </c>
       <c r="C542">
-        <v>1499.1186683</v>
+        <v>1498.9936772</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6362,7 +6362,7 @@
         <v>270</v>
       </c>
       <c r="C543">
-        <v>1499.1186683</v>
+        <v>1498.9936772</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6373,7 +6373,7 @@
         <v>271</v>
       </c>
       <c r="C544">
-        <v>1505.4901138</v>
+        <v>1505.3326405</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6384,7 +6384,7 @@
         <v>271</v>
       </c>
       <c r="C545">
-        <v>1505.4901138</v>
+        <v>1505.3326405</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>272</v>
       </c>
       <c r="C546">
-        <v>1511.783493</v>
+        <v>1511.5875187</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6406,7 +6406,7 @@
         <v>272</v>
       </c>
       <c r="C547">
-        <v>1511.783493</v>
+        <v>1511.5875187</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6417,7 +6417,7 @@
         <v>273</v>
       </c>
       <c r="C548">
-        <v>1517.9966447</v>
+        <v>1517.7557843</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6428,7 +6428,7 @@
         <v>273</v>
       </c>
       <c r="C549">
-        <v>1517.9966447</v>
+        <v>1517.7557843</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6439,7 +6439,7 @@
         <v>274</v>
       </c>
       <c r="C550">
-        <v>1524.1272146</v>
+        <v>1523.8349341</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6450,7 +6450,7 @@
         <v>274</v>
       </c>
       <c r="C551">
-        <v>1524.1272146</v>
+        <v>1523.8349341</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6461,7 +6461,7 @@
         <v>275</v>
       </c>
       <c r="C552">
-        <v>1530.1726301</v>
+        <v>1529.8225392</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6472,7 +6472,7 @@
         <v>275</v>
       </c>
       <c r="C553">
-        <v>1530.1726301</v>
+        <v>1529.8225392</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6483,7 +6483,7 @@
         <v>276</v>
       </c>
       <c r="C554">
-        <v>1536.1300971</v>
+        <v>1535.7163219</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>276</v>
       </c>
       <c r="C555">
-        <v>1536.1300971</v>
+        <v>1535.7163219</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6505,7 +6505,7 @@
         <v>277</v>
       </c>
       <c r="C556">
-        <v>1541.996628</v>
+        <v>1541.5142602</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6516,7 +6516,7 @@
         <v>277</v>
       </c>
       <c r="C557">
-        <v>1541.996628</v>
+        <v>1541.5142602</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6527,7 +6527,7 @@
         <v>278</v>
       </c>
       <c r="C558">
-        <v>1547.7691063</v>
+        <v>1547.2147202</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6538,7 +6538,7 @@
         <v>278</v>
       </c>
       <c r="C559">
-        <v>1547.7691063</v>
+        <v>1547.2147202</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6549,7 +6549,7 @@
         <v>279</v>
       </c>
       <c r="C560">
-        <v>1553.4443919</v>
+        <v>1552.8166142</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6560,7 +6560,7 @@
         <v>279</v>
       </c>
       <c r="C561">
-        <v>1553.4443919</v>
+        <v>1552.8166142</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6571,7 +6571,7 @@
         <v>280</v>
       </c>
       <c r="C562">
-        <v>1559.0194654</v>
+        <v>1558.3195771</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6582,7 +6582,7 @@
         <v>280</v>
       </c>
       <c r="C563">
-        <v>1559.0194654</v>
+        <v>1558.3195771</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6593,7 +6593,7 @@
         <v>281</v>
       </c>
       <c r="C564">
-        <v>1564.49161</v>
+        <v>1563.7241546</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6604,7 +6604,7 @@
         <v>281</v>
       </c>
       <c r="C565">
-        <v>1564.49161</v>
+        <v>1563.7241546</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6615,7 +6615,7 @@
         <v>282</v>
       </c>
       <c r="C566">
-        <v>1569.8586232</v>
+        <v>1569.0319907</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6626,7 +6626,7 @@
         <v>282</v>
       </c>
       <c r="C567">
-        <v>1569.8586232</v>
+        <v>1569.0319907</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6637,7 +6637,7 @@
         <v>283</v>
       </c>
       <c r="C568">
-        <v>1575.1190487</v>
+        <v>1574.2460043</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6648,7 +6648,7 @@
         <v>283</v>
       </c>
       <c r="C569">
-        <v>1575.1190487</v>
+        <v>1574.2460043</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6659,7 +6659,7 @@
         <v>284</v>
       </c>
       <c r="C570">
-        <v>1580.2724166</v>
+        <v>1579.3705425</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6670,7 +6670,7 @@
         <v>284</v>
       </c>
       <c r="C571">
-        <v>1580.2724166</v>
+        <v>1579.3705425</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6681,7 +6681,7 @@
         <v>285</v>
       </c>
       <c r="C572">
-        <v>1585.3194771</v>
+        <v>1584.411499</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6692,7 +6692,7 @@
         <v>285</v>
       </c>
       <c r="C573">
-        <v>1585.3194771</v>
+        <v>1584.411499</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6703,7 +6703,7 @@
         <v>286</v>
       </c>
       <c r="C574">
-        <v>1590.2624157</v>
+        <v>1589.3763857</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6714,7 +6714,7 @@
         <v>286</v>
       </c>
       <c r="C575">
-        <v>1590.2624157</v>
+        <v>1589.3763857</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6725,7 +6725,7 @@
         <v>287</v>
       </c>
       <c r="C576">
-        <v>1595.1050339</v>
+        <v>1594.2743503</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6736,7 +6736,7 @@
         <v>287</v>
       </c>
       <c r="C577">
-        <v>1595.1050339</v>
+        <v>1594.2743503</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6747,7 +6747,7 @@
         <v>288</v>
       </c>
       <c r="C578">
-        <v>1599.8528854</v>
+        <v>1599.1161298</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6758,7 +6758,7 @@
         <v>288</v>
       </c>
       <c r="C579">
-        <v>1599.8528854</v>
+        <v>1599.1161298</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6769,7 +6769,7 @@
         <v>289</v>
       </c>
       <c r="C580">
-        <v>1604.5133564</v>
+        <v>1603.9139351</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6780,7 +6780,7 @@
         <v>289</v>
       </c>
       <c r="C581">
-        <v>1604.5133564</v>
+        <v>1603.9139351</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6791,7 +6791,7 @@
         <v>290</v>
       </c>
       <c r="C582">
-        <v>1609.0956833</v>
+        <v>1608.6812603</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6802,7 +6802,7 @@
         <v>290</v>
       </c>
       <c r="C583">
-        <v>1609.0956833</v>
+        <v>1608.6812603</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6813,7 +6813,7 @@
         <v>291</v>
       </c>
       <c r="C584">
-        <v>1613.6109016</v>
+        <v>1613.4326135</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6824,7 +6824,7 @@
         <v>291</v>
       </c>
       <c r="C585">
-        <v>1613.6109016</v>
+        <v>1613.4326135</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6835,7 +6835,7 @@
         <v>292</v>
       </c>
       <c r="C586">
-        <v>1618.0717234</v>
+        <v>1618.1831656</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6846,7 +6846,7 @@
         <v>292</v>
       </c>
       <c r="C587">
-        <v>1618.0717234</v>
+        <v>1618.1831656</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6857,7 +6857,7 @@
         <v>293</v>
       </c>
       <c r="C588">
-        <v>1622.4923421</v>
+        <v>1622.9483167</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6868,7 +6868,7 @@
         <v>293</v>
       </c>
       <c r="C589">
-        <v>1622.4923421</v>
+        <v>1622.9483167</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6879,7 +6879,7 @@
         <v>294</v>
       </c>
       <c r="C590">
-        <v>1626.8881615</v>
+        <v>1627.7431803</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6890,7 +6890,7 @@
         <v>294</v>
       </c>
       <c r="C591">
-        <v>1626.8881615</v>
+        <v>1627.7431803</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6901,7 +6901,7 @@
         <v>295</v>
       </c>
       <c r="C592">
-        <v>1631.2754515</v>
+        <v>1632.5819912</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6912,7 +6912,7 @@
         <v>295</v>
       </c>
       <c r="C593">
-        <v>1631.2754515</v>
+        <v>1632.5819912</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6923,7 +6923,7 @@
         <v>296</v>
       </c>
       <c r="C594">
-        <v>1635.6709287</v>
+        <v>1637.4774466</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6934,7 +6934,7 @@
         <v>296</v>
       </c>
       <c r="C595">
-        <v>1635.6709287</v>
+        <v>1637.4774466</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6945,7 +6945,7 @@
         <v>297</v>
       </c>
       <c r="C596">
-        <v>1640.0912636</v>
+        <v>1642.4400004</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6956,7 +6956,7 @@
         <v>297</v>
       </c>
       <c r="C597">
-        <v>1640.0912636</v>
+        <v>1642.4400004</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6967,777 +6967,733 @@
         <v>298</v>
       </c>
       <c r="C598">
-        <v>1644.552517</v>
+        <v>1647.4771376</v>
       </c>
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="2">
-        <v>43215</v>
+        <v>43216</v>
       </c>
       <c r="B599">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C599">
-        <v>1644.552517</v>
+        <v>1652.5926707</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="2">
-        <v>43216</v>
+        <v>43217</v>
       </c>
       <c r="B600">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C600">
-        <v>1649.0695113</v>
+        <v>1657.7861082</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="2">
-        <v>43216</v>
+        <v>43218</v>
       </c>
       <c r="B601">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C601">
-        <v>1649.0695113</v>
+        <v>1663.0521578</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="2">
-        <v>43217</v>
+        <v>43219</v>
       </c>
       <c r="B602">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C602">
-        <v>1653.6551482</v>
+        <v>1668.3804302</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="2">
-        <v>43217</v>
+        <v>43220</v>
       </c>
       <c r="B603">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C603">
-        <v>1653.6551482</v>
+        <v>1673.7554068</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="2">
-        <v>43218</v>
+        <v>43221</v>
       </c>
       <c r="B604">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C604">
-        <v>1658.319691</v>
+        <v>1679.1567211</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="2">
-        <v>43218</v>
+        <v>43222</v>
       </c>
       <c r="B605">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C605">
-        <v>1658.319691</v>
+        <v>1684.5597763</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="2">
-        <v>43219</v>
+        <v>43223</v>
       </c>
       <c r="B606">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C606">
-        <v>1663.0700409</v>
+        <v>1689.9366914</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="2">
-        <v>43220</v>
+        <v>43224</v>
       </c>
       <c r="B607">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C607">
-        <v>1667.9090472</v>
+        <v>1695.2575205</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="2">
-        <v>43221</v>
+        <v>43225</v>
       </c>
       <c r="B608">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C608">
-        <v>1672.8349022</v>
+        <v>1700.4916568</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="2">
-        <v>43222</v>
+        <v>43226</v>
       </c>
       <c r="B609">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C609">
-        <v>1677.8406834</v>
+        <v>1705.6092978</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="2">
-        <v>43223</v>
+        <v>43227</v>
       </c>
       <c r="B610">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C610">
-        <v>1682.9141075</v>
+        <v>1710.5828378</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="2">
-        <v>43224</v>
+        <v>43228</v>
       </c>
       <c r="B611">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C611">
-        <v>1688.0375579</v>
+        <v>1715.3880592</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="2">
-        <v>43225</v>
+        <v>43229</v>
       </c>
       <c r="B612">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C612">
-        <v>1693.1884329</v>
+        <v>1720.0050202</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="2">
-        <v>43226</v>
+        <v>43230</v>
       </c>
       <c r="B613">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C613">
-        <v>1698.3398372</v>
+        <v>1724.41858</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="2">
-        <v>43227</v>
+        <v>43231</v>
       </c>
       <c r="B614">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C614">
-        <v>1703.461601</v>
+        <v>1728.6185495</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="2">
-        <v>43228</v>
+        <v>43232</v>
       </c>
       <c r="B615">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C615">
-        <v>1708.5215725</v>
+        <v>1732.5994999</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="2">
-        <v>43229</v>
+        <v>43233</v>
       </c>
       <c r="B616">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C616">
-        <v>1713.4870896</v>
+        <v>1736.3602993</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="2">
-        <v>43230</v>
+        <v>43234</v>
       </c>
       <c r="B617">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C617">
-        <v>1718.3265066</v>
+        <v>1739.9034637</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="2">
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B618">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C618">
-        <v>1723.0106404</v>
+        <v>1743.2344164</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="2">
-        <v>43232</v>
+        <v>43236</v>
       </c>
       <c r="B619">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C619">
-        <v>1727.5140073</v>
+        <v>1746.3607402</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="2">
-        <v>43233</v>
+        <v>43237</v>
       </c>
       <c r="B620">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C620">
-        <v>1731.8157507</v>
+        <v>1749.2914875</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="2">
-        <v>43234</v>
+        <v>43238</v>
       </c>
       <c r="B621">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C621">
-        <v>1735.9001999</v>
+        <v>1752.0365945</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="2">
-        <v>43235</v>
+        <v>43239</v>
       </c>
       <c r="B622">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C622">
-        <v>1739.75705</v>
+        <v>1754.6064214</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="2">
-        <v>43236</v>
+        <v>43240</v>
       </c>
       <c r="B623">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C623">
-        <v>1743.3811967</v>
+        <v>1757.0114222</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="2">
-        <v>43237</v>
+        <v>43241</v>
       </c>
       <c r="B624">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C624">
-        <v>1746.7722927</v>
+        <v>1759.2619325</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="2">
-        <v>43238</v>
+        <v>43242</v>
       </c>
       <c r="B625">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C625">
-        <v>1749.9341112</v>
+        <v>1761.3680554</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="2">
-        <v>43239</v>
+        <v>43243</v>
       </c>
       <c r="B626">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C626">
-        <v>1752.8738072</v>
+        <v>1763.339618</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="2">
-        <v>43240</v>
+        <v>43244</v>
       </c>
       <c r="B627">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C627">
-        <v>1755.6011556</v>
+        <v>1765.186173</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="2">
-        <v>43241</v>
+        <v>43245</v>
       </c>
       <c r="B628">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C628">
-        <v>1758.1278292</v>
+        <v>1766.9170206</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="2">
-        <v>43242</v>
+        <v>43246</v>
       </c>
       <c r="B629">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C629">
-        <v>1760.4667581</v>
+        <v>1768.5412292</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="2">
-        <v>43243</v>
+        <v>43247</v>
       </c>
       <c r="B630">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C630">
-        <v>1762.6315917</v>
+        <v>1770.0676407</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="2">
-        <v>43244</v>
+        <v>43248</v>
       </c>
       <c r="B631">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C631">
-        <v>1764.6362668</v>
+        <v>1771.5048523</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="2">
-        <v>43245</v>
+        <v>43249</v>
       </c>
       <c r="B632">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C632">
-        <v>1766.4946744</v>
+        <v>1772.8611683</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="2">
-        <v>43246</v>
+        <v>43250</v>
       </c>
       <c r="B633">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C633">
-        <v>1768.2204072</v>
+        <v>1774.1445273</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="2">
-        <v>43247</v>
+        <v>43251</v>
       </c>
       <c r="B634">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C634">
-        <v>1769.8265713</v>
+        <v>1775.362408</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="2">
-        <v>43248</v>
+        <v>43252</v>
       </c>
       <c r="B635">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C635">
-        <v>1771.3256416</v>
+        <v>1776.521723</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="2">
-        <v>43249</v>
+        <v>43253</v>
       </c>
       <c r="B636">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C636">
-        <v>1772.7293473</v>
+        <v>1777.628712</v>
       </c>
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="2">
-        <v>43250</v>
+        <v>43254</v>
       </c>
       <c r="B637">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C637">
-        <v>1774.0485749</v>
+        <v>1778.688844</v>
       </c>
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="2">
-        <v>43251</v>
+        <v>43255</v>
       </c>
       <c r="B638">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C638">
-        <v>1775.2932847</v>
+        <v>1779.7067399</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="2">
-        <v>43252</v>
+        <v>43256</v>
       </c>
       <c r="B639">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C639">
-        <v>1776.4724355</v>
+        <v>1780.6861241</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="2">
-        <v>43253</v>
+        <v>43257</v>
       </c>
       <c r="B640">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C640">
-        <v>1777.5939235</v>
+        <v>1781.6298098</v>
       </c>
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="2">
-        <v>43254</v>
+        <v>43258</v>
       </c>
       <c r="B641">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C641">
-        <v>1778.6645351</v>
+        <v>1782.5397233</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="2">
-        <v>43255</v>
+        <v>43259</v>
       </c>
       <c r="B642">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C642">
-        <v>1779.6899222</v>
+        <v>1783.4169655</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="2">
-        <v>43256</v>
+        <v>43260</v>
       </c>
       <c r="B643">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C643">
-        <v>1780.6746032</v>
+        <v>1784.2619083</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="2">
-        <v>43257</v>
+        <v>43261</v>
       </c>
       <c r="B644">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C644">
-        <v>1781.6219941</v>
+        <v>1785.0743187</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="2">
-        <v>43258</v>
+        <v>43262</v>
       </c>
       <c r="B645">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C645">
-        <v>1782.534472</v>
+        <v>1785.8535033</v>
       </c>
     </row>
     <row r="646" spans="1:3">
       <c r="A646" s="2">
-        <v>43259</v>
+        <v>43263</v>
       </c>
       <c r="B646">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C646">
-        <v>1783.4134707</v>
+        <v>1786.5984638</v>
       </c>
     </row>
     <row r="647" spans="1:3">
       <c r="A647" s="2">
-        <v>43260</v>
+        <v>43264</v>
       </c>
       <c r="B647">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C647">
-        <v>1784.2596042</v>
+        <v>1787.3080524</v>
       </c>
     </row>
     <row r="648" spans="1:3">
       <c r="A648" s="2">
-        <v>43261</v>
+        <v>43265</v>
       </c>
       <c r="B648">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C648">
-        <v>1785.0728135</v>
+        <v>1787.9811179</v>
       </c>
     </row>
     <row r="649" spans="1:3">
       <c r="A649" s="2">
-        <v>43262</v>
+        <v>43266</v>
       </c>
       <c r="B649">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C649">
-        <v>1785.8525289</v>
+        <v>1788.6166357</v>
       </c>
     </row>
     <row r="650" spans="1:3">
       <c r="A650" s="2">
-        <v>43263</v>
+        <v>43267</v>
       </c>
       <c r="B650">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C650">
-        <v>1786.5978386</v>
+        <v>1789.2138139</v>
       </c>
     </row>
     <row r="651" spans="1:3">
       <c r="A651" s="2">
-        <v>43264</v>
+        <v>43268</v>
       </c>
       <c r="B651">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C651">
-        <v>1787.3076547</v>
+        <v>1789.7721722</v>
       </c>
     </row>
     <row r="652" spans="1:3">
       <c r="A652" s="2">
-        <v>43265</v>
+        <v>43269</v>
       </c>
       <c r="B652">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C652">
-        <v>1787.9808671</v>
+        <v>1790.2915926</v>
       </c>
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="2">
-        <v>43266</v>
+        <v>43270</v>
       </c>
       <c r="B653">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C653">
-        <v>1788.6164788</v>
+        <v>1790.7723426</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" s="2">
-        <v>43267</v>
+        <v>43271</v>
       </c>
       <c r="B654">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C654">
-        <v>1789.2137166</v>
+        <v>1791.2150732</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="2">
-        <v>43268</v>
+        <v>43272</v>
       </c>
       <c r="B655">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C655">
-        <v>1789.7721122</v>
+        <v>1791.6207961</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="A656" s="2">
-        <v>43269</v>
+        <v>43273</v>
       </c>
       <c r="B656">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C656">
-        <v>1790.2915559</v>
+        <v>1791.9908449</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="2">
-        <v>43270</v>
+        <v>43274</v>
       </c>
       <c r="B657">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C657">
-        <v>1790.7723203</v>
+        <v>1792.3268248</v>
       </c>
     </row>
     <row r="658" spans="1:3">
       <c r="A658" s="2">
-        <v>43271</v>
+        <v>43275</v>
       </c>
       <c r="B658">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C658">
-        <v>1791.2150598</v>
+        <v>1792.6305567</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="2">
-        <v>43272</v>
+        <v>43276</v>
       </c>
       <c r="B659">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C659">
-        <v>1791.6207881</v>
+        <v>1792.9040191</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="2">
-        <v>43273</v>
+        <v>43277</v>
       </c>
       <c r="B660">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C660">
-        <v>1791.9908401</v>
+        <v>1793.1492912</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="A661" s="2">
-        <v>43274</v>
+        <v>43278</v>
       </c>
       <c r="B661">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C661">
-        <v>1792.326822</v>
+        <v>1793.3685009</v>
       </c>
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="2">
-        <v>43275</v>
+        <v>43279</v>
       </c>
       <c r="B662">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C662">
-        <v>1792.6305551</v>
+        <v>1793.5637783</v>
       </c>
     </row>
     <row r="663" spans="1:3">
       <c r="A663" s="2">
-        <v>43276</v>
+        <v>43280</v>
       </c>
       <c r="B663">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C663">
-        <v>1792.9040181</v>
+        <v>1793.7372166</v>
       </c>
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="2">
-        <v>43277</v>
+        <v>43281</v>
       </c>
       <c r="B664">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C664">
-        <v>1793.1492907</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3">
-      <c r="A665" s="2">
-        <v>43278</v>
-      </c>
-      <c r="B665">
-        <v>361</v>
-      </c>
-      <c r="C665">
-        <v>1793.3685006</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3">
-      <c r="A666" s="2">
-        <v>43279</v>
-      </c>
-      <c r="B666">
-        <v>362</v>
-      </c>
-      <c r="C666">
-        <v>1793.5637781</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3">
-      <c r="A667" s="2">
-        <v>43280</v>
-      </c>
-      <c r="B667">
-        <v>363</v>
-      </c>
-      <c r="C667">
-        <v>1793.7372165</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3">
-      <c r="A668" s="2">
-        <v>43281</v>
-      </c>
-      <c r="B668">
-        <v>364</v>
-      </c>
-      <c r="C668">
-        <v>1793.8908399</v>
+        <v>1793.89084</v>
       </c>
     </row>
   </sheetData>
